--- a/sample_mapping/murex_xpath_mapping.xlsx
+++ b/sample_mapping/murex_xpath_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\mhsa\mhsa\sample_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B696E-57EB-4990-AC3C-37D531ADE944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E50D73-28FA-418D-A515-A1B5B67AD0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3024" yWindow="17172" windowWidth="23256" windowHeight="13176" xr2:uid="{02769C3B-66FE-4BAD-80EB-4F6CB73AB2E9}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="275">
   <si>
     <t>trade_family</t>
   </si>
@@ -1757,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49276FB7-08DB-4143-AC6C-E31B9092D760}">
   <dimension ref="A1:N262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F165" sqref="D165:F166"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6129,14 +6129,18 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>256</v>
@@ -6152,14 +6156,18 @@
       <c r="K147" s="1"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
         <v>258</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>257</v>

--- a/sample_mapping/murex_xpath_mapping.xlsx
+++ b/sample_mapping/murex_xpath_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\mhsa\mhsa\sample_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E50D73-28FA-418D-A515-A1B5B67AD0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410E215E-837E-4DD3-B020-FEA35A02F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3024" yWindow="17172" windowWidth="23256" windowHeight="13176" xr2:uid="{02769C3B-66FE-4BAD-80EB-4F6CB73AB2E9}"/>
+    <workbookView xWindow="1740" yWindow="4815" windowWidth="35385" windowHeight="16170" xr2:uid="{02769C3B-66FE-4BAD-80EB-4F6CB73AB2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="murex_xpath_mapping" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="297">
   <si>
     <t>trade_family</t>
   </si>
@@ -845,6 +845,72 @@
   </si>
   <si>
     <t>/MxML/trades/trade/tradeBody/interestRateSwap/stream[streamTemplate/leg=2]/receiverPartyReference/@href</t>
+  </si>
+  <si>
+    <t>LEG0PR</t>
+  </si>
+  <si>
+    <t>LEG0RMARGIN</t>
+  </si>
+  <si>
+    <t>LEG1RMARGIN</t>
+  </si>
+  <si>
+    <t>CURVSCURR</t>
+  </si>
+  <si>
+    <t>CURR0</t>
+  </si>
+  <si>
+    <t>CURR1</t>
+  </si>
+  <si>
+    <t>FXNOM1</t>
+  </si>
+  <si>
+    <t>FUTLABAL</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>MARDATE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>FURCUR</t>
+  </si>
+  <si>
+    <t>source_table</t>
+  </si>
+  <si>
+    <t>source_column</t>
+  </si>
+  <si>
+    <t>source_data_type</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>Ingestion</t>
+  </si>
+  <si>
+    <t>traget_table</t>
+  </si>
+  <si>
+    <t>rpt_mhss_intraday_swaps</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>murex_trade</t>
+  </si>
+  <si>
+    <t>If value</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1427,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1374,6 +1440,9 @@
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1755,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49276FB7-08DB-4143-AC6C-E31B9092D760}">
-  <dimension ref="A1:N262"/>
+  <dimension ref="A1:T262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148:B148"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,12 +1837,18 @@
     <col min="6" max="6" width="37" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="71.85546875" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>263</v>
       </c>
@@ -1792,7 +1867,7 @@
       </c>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1832,8 +1907,29 @@
       <c r="M2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="S2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -1859,12 +1955,32 @@
         <v>0</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
@@ -1892,8 +2008,26 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
@@ -1921,8 +2055,26 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>295</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>138</v>
       </c>
@@ -1948,12 +2100,32 @@
         <v>1</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>295</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
@@ -1981,8 +2153,26 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>295</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>138</v>
       </c>
@@ -2008,12 +2198,32 @@
         <v>0</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>295</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>138</v>
       </c>
@@ -2041,8 +2251,26 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>295</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>138</v>
       </c>
@@ -2070,8 +2298,26 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>295</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
@@ -2097,12 +2343,32 @@
         <v>0</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>295</v>
+      </c>
+      <c r="O11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
@@ -2130,8 +2396,26 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>296</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -2157,12 +2441,14 @@
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
@@ -2188,12 +2474,14 @@
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>138</v>
       </c>
@@ -2222,7 +2510,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
@@ -2251,7 +2539,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
@@ -2280,7 +2568,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
@@ -2309,7 +2597,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>138</v>
       </c>
@@ -2335,12 +2623,14 @@
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>138</v>
       </c>
@@ -2368,8 +2658,14 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
@@ -2397,8 +2693,14 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S21" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>138</v>
       </c>
@@ -2424,12 +2726,20 @@
         <v>1</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>138</v>
       </c>
@@ -2457,8 +2767,14 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>138</v>
       </c>
@@ -2484,12 +2800,20 @@
         <v>1</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>138</v>
       </c>
@@ -2515,12 +2839,20 @@
         <v>1</v>
       </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>138</v>
       </c>
@@ -2546,12 +2878,20 @@
         <v>1</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
@@ -2577,12 +2917,20 @@
         <v>1</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>138</v>
       </c>
@@ -2608,12 +2956,20 @@
         <v>1</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K28" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
@@ -2639,12 +2995,20 @@
         <v>1</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>138</v>
       </c>
@@ -2670,12 +3034,20 @@
         <v>1</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K30" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S30" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>138</v>
       </c>
@@ -2701,12 +3073,20 @@
         <v>1</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K31" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>138</v>
       </c>
@@ -2732,12 +3112,20 @@
         <v>1</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K32" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>138</v>
       </c>
@@ -2765,8 +3153,14 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
@@ -2792,12 +3186,20 @@
         <v>1</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K34" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S34" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -2823,12 +3225,20 @@
         <v>0</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K35" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S35" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>138</v>
       </c>
@@ -2856,8 +3266,14 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S36" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>138</v>
       </c>
@@ -2885,8 +3301,14 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S37" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
@@ -2912,12 +3334,20 @@
         <v>1</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K38" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S38" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>138</v>
       </c>
@@ -2945,8 +3375,14 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S39" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>138</v>
       </c>
@@ -2972,12 +3408,20 @@
         <v>0</v>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K40" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S40" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>138</v>
       </c>
@@ -3005,8 +3449,14 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S41" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>138</v>
       </c>
@@ -3034,8 +3484,14 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S42" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>138</v>
       </c>
@@ -3061,12 +3517,20 @@
         <v>0</v>
       </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K43" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S43" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>138</v>
       </c>
@@ -3094,8 +3558,14 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S44" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>138</v>
       </c>
@@ -3121,12 +3591,20 @@
         <v>1</v>
       </c>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K45" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S45" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -3152,12 +3630,20 @@
         <v>1</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K46" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S46" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>138</v>
       </c>
@@ -3185,8 +3671,14 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S47" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>138</v>
       </c>
@@ -3214,8 +3706,14 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S48" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T48" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>138</v>
       </c>
@@ -3243,8 +3741,14 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S49" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>138</v>
       </c>
@@ -3272,8 +3776,14 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S50" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>138</v>
       </c>
@@ -3299,12 +3809,20 @@
         <v>1</v>
       </c>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K51" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S51" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>138</v>
       </c>
@@ -3332,8 +3850,14 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S52" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>138</v>
       </c>
@@ -3361,8 +3885,14 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S53" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>138</v>
       </c>
@@ -3388,12 +3918,14 @@
         <v>1</v>
       </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K54" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>138</v>
       </c>
@@ -3422,7 +3954,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>138</v>
       </c>
@@ -3448,12 +3980,14 @@
         <v>1</v>
       </c>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K56" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>138</v>
       </c>
@@ -3479,12 +4013,14 @@
         <v>1</v>
       </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K57" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>138</v>
       </c>
@@ -3510,12 +4046,14 @@
         <v>1</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K58" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>138</v>
       </c>
@@ -3541,12 +4079,14 @@
         <v>1</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K59" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>138</v>
       </c>
@@ -3572,12 +4112,14 @@
         <v>1</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K60" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>138</v>
       </c>
@@ -3603,12 +4145,14 @@
         <v>1</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K61" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>138</v>
       </c>
@@ -3634,12 +4178,14 @@
         <v>1</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K62" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>138</v>
       </c>
@@ -3665,12 +4211,14 @@
         <v>1</v>
       </c>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K63" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>138</v>
       </c>
@@ -3696,7 +4244,9 @@
         <v>1</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K64" s="1" t="s">
         <v>151</v>
       </c>
@@ -3756,7 +4306,9 @@
         <v>1</v>
       </c>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K66" s="1" t="s">
         <v>135</v>
       </c>
@@ -3785,7 +4337,9 @@
         <v>0</v>
       </c>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K67" s="1" t="s">
         <v>15</v>
       </c>
@@ -3868,7 +4422,9 @@
         <v>1</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="J70" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K70" s="1" t="s">
         <v>22</v>
       </c>
@@ -3924,7 +4480,9 @@
         <v>0</v>
       </c>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K72" s="1" t="s">
         <v>27</v>
       </c>
@@ -4007,7 +4565,9 @@
         <v>0</v>
       </c>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K75" s="1" t="s">
         <v>35</v>
       </c>
@@ -4063,7 +4623,9 @@
         <v>1</v>
       </c>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K77" s="1" t="s">
         <v>38</v>
       </c>
@@ -4092,7 +4654,9 @@
         <v>1</v>
       </c>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="J78" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K78" s="1" t="s">
         <v>41</v>
       </c>
@@ -4310,7 +4874,9 @@
         <v>1</v>
       </c>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="J86" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K86" s="1" t="s">
         <v>55</v>
       </c>
@@ -4393,7 +4959,9 @@
         <v>1</v>
       </c>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="J89" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K89" s="1" t="s">
         <v>62</v>
       </c>
@@ -4449,7 +5017,9 @@
         <v>1</v>
       </c>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="J91" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K91" s="1" t="s">
         <v>63</v>
       </c>
@@ -4532,7 +5102,9 @@
         <v>1</v>
       </c>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="J94" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K94" s="1" t="s">
         <v>66</v>
       </c>
@@ -4561,7 +5133,9 @@
         <v>1</v>
       </c>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="J95" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K95" s="1" t="s">
         <v>69</v>
       </c>
@@ -4590,7 +5164,9 @@
         <v>1</v>
       </c>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="J96" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K96" s="1" t="s">
         <v>72</v>
       </c>
@@ -4619,7 +5195,9 @@
         <v>1</v>
       </c>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="J97" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K97" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,7 +5226,9 @@
         <v>1</v>
       </c>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="J98" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K98" s="1" t="s">
         <v>78</v>
       </c>
@@ -4677,7 +5257,9 @@
         <v>1</v>
       </c>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="J99" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K99" s="1" t="s">
         <v>78</v>
       </c>
@@ -4706,7 +5288,9 @@
         <v>1</v>
       </c>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="J100" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K100" s="1" t="s">
         <v>85</v>
       </c>
@@ -4735,7 +5319,9 @@
         <v>1</v>
       </c>
       <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="J101" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K101" s="1" t="s">
         <v>88</v>
       </c>
@@ -4766,7 +5352,9 @@
       <c r="I102" s="1">
         <v>0</v>
       </c>
-      <c r="J102" s="1"/>
+      <c r="J102" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4797,7 +5385,9 @@
       <c r="I103" s="1">
         <v>0</v>
       </c>
-      <c r="J103" s="1"/>
+      <c r="J103" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K103" s="1" t="s">
         <v>94</v>
       </c>
@@ -4826,7 +5416,9 @@
         <v>1</v>
       </c>
       <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="J104" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K104" s="1" t="s">
         <v>97</v>
       </c>
@@ -4855,7 +5447,9 @@
         <v>1</v>
       </c>
       <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="J105" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K105" s="1" t="s">
         <v>100</v>
       </c>
@@ -4938,7 +5532,9 @@
         <v>1</v>
       </c>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="J108" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K108" s="1" t="s">
         <v>103</v>
       </c>
@@ -4967,7 +5563,9 @@
         <v>1</v>
       </c>
       <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="J109" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K109" s="1" t="s">
         <v>106</v>
       </c>
@@ -4996,7 +5594,9 @@
         <v>1</v>
       </c>
       <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="J110" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K110" s="1" t="s">
         <v>109</v>
       </c>
@@ -5025,7 +5625,9 @@
         <v>1</v>
       </c>
       <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="J111" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K111" s="1" t="s">
         <v>111</v>
       </c>
@@ -5054,7 +5656,9 @@
         <v>1</v>
       </c>
       <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="J112" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K112" s="1" t="s">
         <v>113</v>
       </c>
@@ -5083,7 +5687,9 @@
         <v>1</v>
       </c>
       <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="J113" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K113" s="1" t="s">
         <v>113</v>
       </c>
@@ -5112,7 +5718,9 @@
         <v>1</v>
       </c>
       <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="J114" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K114" s="1" t="s">
         <v>117</v>
       </c>
@@ -5141,7 +5749,9 @@
         <v>1</v>
       </c>
       <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="J115" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K115" s="1" t="s">
         <v>120</v>
       </c>
@@ -5172,7 +5782,9 @@
       <c r="I116" s="1">
         <v>0</v>
       </c>
-      <c r="J116" s="1"/>
+      <c r="J116" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K116" s="1" t="s">
         <v>123</v>
       </c>
@@ -5203,7 +5815,9 @@
       <c r="I117" s="1">
         <v>0</v>
       </c>
-      <c r="J117" s="1"/>
+      <c r="J117" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K117" s="1" t="s">
         <v>126</v>
       </c>
@@ -5232,7 +5846,9 @@
         <v>1</v>
       </c>
       <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="J118" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K118" s="1" t="s">
         <v>129</v>
       </c>
@@ -5261,7 +5877,9 @@
         <v>1</v>
       </c>
       <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
+      <c r="J119" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K119" s="1" t="s">
         <v>132</v>
       </c>
@@ -5290,7 +5908,9 @@
         <v>1</v>
       </c>
       <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="J120" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K120" s="1" t="s">
         <v>135</v>
       </c>
@@ -5319,7 +5939,9 @@
         <v>1</v>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="J121" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K121" s="1" t="s">
         <v>137</v>
       </c>
@@ -5348,7 +5970,9 @@
         <v>0</v>
       </c>
       <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="J122" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K122" s="1" t="s">
         <v>15</v>
       </c>
@@ -5443,7 +6067,9 @@
         <v>1</v>
       </c>
       <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="J125" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K125" s="1" t="s">
         <v>22</v>
       </c>
@@ -5511,7 +6137,9 @@
         <v>0</v>
       </c>
       <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="J127" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K127" s="1" t="s">
         <v>27</v>
       </c>
@@ -5609,7 +6237,9 @@
         <v>0</v>
       </c>
       <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="J130" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K130" s="1" t="s">
         <v>35</v>
       </c>
@@ -5677,7 +6307,9 @@
         <v>1</v>
       </c>
       <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
+      <c r="J132" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K132" s="1" t="s">
         <v>38</v>
       </c>
@@ -5709,7 +6341,9 @@
         <v>1</v>
       </c>
       <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="J133" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K133" s="1" t="s">
         <v>41</v>
       </c>
@@ -5954,7 +6588,9 @@
         <v>1</v>
       </c>
       <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="J141" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K141" s="1" t="s">
         <v>55</v>
       </c>
@@ -6049,7 +6685,9 @@
         <v>1</v>
       </c>
       <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="J144" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K144" s="1" t="s">
         <v>62</v>
       </c>
@@ -6117,7 +6755,9 @@
         <v>1</v>
       </c>
       <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="J146" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K146" s="1" t="s">
         <v>63</v>
       </c>
@@ -6206,7 +6846,9 @@
         <v>1</v>
       </c>
       <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="J149" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K149" s="1" t="s">
         <v>66</v>
       </c>
@@ -6238,7 +6880,9 @@
         <v>1</v>
       </c>
       <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
+      <c r="J150" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K150" s="1" t="s">
         <v>69</v>
       </c>
@@ -6270,7 +6914,9 @@
         <v>1</v>
       </c>
       <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
+      <c r="J151" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K151" s="1" t="s">
         <v>72</v>
       </c>
@@ -6305,7 +6951,9 @@
         <v>1</v>
       </c>
       <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
+      <c r="J152" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K152" s="1" t="s">
         <v>75</v>
       </c>
@@ -6337,7 +6985,9 @@
         <v>1</v>
       </c>
       <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
+      <c r="J153" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K153" s="1" t="s">
         <v>78</v>
       </c>
@@ -6372,7 +7022,9 @@
         <v>1</v>
       </c>
       <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
+      <c r="J154" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K154" s="1" t="s">
         <v>78</v>
       </c>
@@ -6407,7 +7059,9 @@
         <v>1</v>
       </c>
       <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
+      <c r="J155" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K155" s="1" t="s">
         <v>85</v>
       </c>
@@ -6442,7 +7096,9 @@
         <v>1</v>
       </c>
       <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
+      <c r="J156" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K156" s="1" t="s">
         <v>88</v>
       </c>
@@ -6479,7 +7135,9 @@
       <c r="I157" s="1">
         <v>0</v>
       </c>
-      <c r="J157" s="1"/>
+      <c r="J157" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K157" s="1" t="s">
         <v>91</v>
       </c>
@@ -6516,7 +7174,9 @@
       <c r="I158" s="1">
         <v>0</v>
       </c>
-      <c r="J158" s="1"/>
+      <c r="J158" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K158" s="1" t="s">
         <v>94</v>
       </c>
@@ -6551,7 +7211,9 @@
         <v>1</v>
       </c>
       <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
+      <c r="J159" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K159" s="1" t="s">
         <v>97</v>
       </c>
@@ -6586,7 +7248,9 @@
         <v>1</v>
       </c>
       <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
+      <c r="J160" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K160" s="1" t="s">
         <v>100</v>
       </c>
@@ -6675,7 +7339,9 @@
         <v>1</v>
       </c>
       <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
+      <c r="J163" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K163" s="1" t="s">
         <v>103</v>
       </c>
@@ -6707,7 +7373,9 @@
         <v>1</v>
       </c>
       <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
+      <c r="J164" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K164" s="1" t="s">
         <v>106</v>
       </c>
@@ -6739,7 +7407,9 @@
         <v>1</v>
       </c>
       <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
+      <c r="J165" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K165" s="1" t="s">
         <v>109</v>
       </c>
@@ -6774,7 +7444,9 @@
         <v>1</v>
       </c>
       <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
+      <c r="J166" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K166" s="1" t="s">
         <v>111</v>
       </c>
@@ -6806,7 +7478,9 @@
         <v>1</v>
       </c>
       <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
+      <c r="J167" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K167" s="1" t="s">
         <v>113</v>
       </c>
@@ -6841,7 +7515,9 @@
         <v>1</v>
       </c>
       <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
+      <c r="J168" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K168" s="1" t="s">
         <v>113</v>
       </c>
@@ -6876,7 +7552,9 @@
         <v>1</v>
       </c>
       <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
+      <c r="J169" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K169" s="1" t="s">
         <v>117</v>
       </c>
@@ -6911,7 +7589,9 @@
         <v>1</v>
       </c>
       <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
+      <c r="J170" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K170" s="1" t="s">
         <v>120</v>
       </c>
@@ -6948,7 +7628,9 @@
       <c r="I171" s="1">
         <v>0</v>
       </c>
-      <c r="J171" s="1"/>
+      <c r="J171" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K171" s="1" t="s">
         <v>123</v>
       </c>
@@ -6982,7 +7664,9 @@
       <c r="I172" s="1">
         <v>0</v>
       </c>
-      <c r="J172" s="1"/>
+      <c r="J172" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K172" s="1" t="s">
         <v>126</v>
       </c>
@@ -7017,7 +7701,9 @@
         <v>1</v>
       </c>
       <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
+      <c r="J173" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K173" s="1" t="s">
         <v>129</v>
       </c>
@@ -7052,7 +7738,9 @@
         <v>1</v>
       </c>
       <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
+      <c r="J174" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K174" s="1" t="s">
         <v>132</v>
       </c>
@@ -7087,7 +7775,9 @@
         <v>1</v>
       </c>
       <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
+      <c r="J175" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K175" s="1" t="s">
         <v>135</v>
       </c>
@@ -7119,7 +7809,9 @@
         <v>1</v>
       </c>
       <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
+      <c r="J176" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K176" s="1" t="s">
         <v>137</v>
       </c>
@@ -7154,7 +7846,9 @@
         <v>0</v>
       </c>
       <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
+      <c r="J177" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K177" s="1" t="s">
         <v>15</v>
       </c>
@@ -7237,7 +7931,9 @@
         <v>1</v>
       </c>
       <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
+      <c r="J180" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K180" s="1" t="s">
         <v>22</v>
       </c>
@@ -7293,7 +7989,9 @@
         <v>0</v>
       </c>
       <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
+      <c r="J182" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K182" s="1" t="s">
         <v>27</v>
       </c>
@@ -7376,7 +8074,9 @@
         <v>0</v>
       </c>
       <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
+      <c r="J185" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K185" s="1" t="s">
         <v>244</v>
       </c>
@@ -7432,7 +8132,9 @@
         <v>1</v>
       </c>
       <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
+      <c r="J187" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K187" s="1" t="s">
         <v>38</v>
       </c>
@@ -7461,7 +8163,9 @@
         <v>1</v>
       </c>
       <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
+      <c r="J188" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K188" s="1" t="s">
         <v>241</v>
       </c>
@@ -7598,7 +8302,9 @@
         <v>1</v>
       </c>
       <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
+      <c r="J193" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K193" s="1" t="s">
         <v>55</v>
       </c>
@@ -7681,7 +8387,9 @@
         <v>1</v>
       </c>
       <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
+      <c r="J196" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K196" s="1" t="s">
         <v>62</v>
       </c>
@@ -7737,7 +8445,9 @@
         <v>1</v>
       </c>
       <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
+      <c r="J198" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K198" s="1" t="s">
         <v>63</v>
       </c>
@@ -7766,7 +8476,9 @@
         <v>1</v>
       </c>
       <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
+      <c r="J199" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K199" s="1" t="s">
         <v>144</v>
       </c>
@@ -7795,7 +8507,9 @@
         <v>1</v>
       </c>
       <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
+      <c r="J200" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K200" s="1" t="s">
         <v>144</v>
       </c>
@@ -7824,7 +8538,9 @@
         <v>1</v>
       </c>
       <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
+      <c r="J201" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K201" s="1" t="s">
         <v>243</v>
       </c>
@@ -7853,7 +8569,9 @@
         <v>1</v>
       </c>
       <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
+      <c r="J202" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K202" s="1" t="s">
         <v>246</v>
       </c>
@@ -7882,7 +8600,9 @@
         <v>1</v>
       </c>
       <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
+      <c r="J203" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K203" s="1" t="s">
         <v>245</v>
       </c>
@@ -7938,7 +8658,9 @@
         <v>1</v>
       </c>
       <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
+      <c r="J205" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K205" s="1" t="s">
         <v>242</v>
       </c>
@@ -7967,7 +8689,9 @@
         <v>1</v>
       </c>
       <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
+      <c r="J206" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K206" s="1" t="s">
         <v>135</v>
       </c>
@@ -7996,7 +8720,9 @@
         <v>0</v>
       </c>
       <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
+      <c r="J207" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K207" s="1" t="s">
         <v>15</v>
       </c>
@@ -8079,7 +8805,9 @@
         <v>1</v>
       </c>
       <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
+      <c r="J210" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K210" s="1" t="s">
         <v>22</v>
       </c>
@@ -8135,7 +8863,9 @@
         <v>0</v>
       </c>
       <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
+      <c r="J212" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K212" s="1" t="s">
         <v>27</v>
       </c>
@@ -8218,7 +8948,9 @@
         <v>0</v>
       </c>
       <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
+      <c r="J215" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K215" s="1" t="s">
         <v>244</v>
       </c>
@@ -8274,7 +9006,9 @@
         <v>1</v>
       </c>
       <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
+      <c r="J217" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K217" s="1" t="s">
         <v>38</v>
       </c>
@@ -8303,7 +9037,9 @@
         <v>1</v>
       </c>
       <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
+      <c r="J218" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K218" s="1" t="s">
         <v>241</v>
       </c>
@@ -8440,7 +9176,9 @@
         <v>1</v>
       </c>
       <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
+      <c r="J223" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K223" s="1" t="s">
         <v>55</v>
       </c>
@@ -8523,7 +9261,9 @@
         <v>1</v>
       </c>
       <c r="I226" s="1"/>
-      <c r="J226" s="1"/>
+      <c r="J226" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K226" s="1" t="s">
         <v>62</v>
       </c>
@@ -8579,7 +9319,9 @@
         <v>1</v>
       </c>
       <c r="I228" s="1"/>
-      <c r="J228" s="1"/>
+      <c r="J228" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K228" s="1" t="s">
         <v>63</v>
       </c>
@@ -8608,7 +9350,9 @@
         <v>1</v>
       </c>
       <c r="I229" s="1"/>
-      <c r="J229" s="1"/>
+      <c r="J229" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K229" s="1" t="s">
         <v>144</v>
       </c>
@@ -8637,7 +9381,9 @@
         <v>1</v>
       </c>
       <c r="I230" s="1"/>
-      <c r="J230" s="1"/>
+      <c r="J230" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K230" s="1" t="s">
         <v>144</v>
       </c>
@@ -8666,7 +9412,9 @@
         <v>1</v>
       </c>
       <c r="I231" s="1"/>
-      <c r="J231" s="1"/>
+      <c r="J231" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K231" s="1" t="s">
         <v>243</v>
       </c>
@@ -8695,7 +9443,9 @@
         <v>1</v>
       </c>
       <c r="I232" s="1"/>
-      <c r="J232" s="1"/>
+      <c r="J232" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K232" s="1" t="s">
         <v>246</v>
       </c>
@@ -8724,7 +9474,9 @@
         <v>1</v>
       </c>
       <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
+      <c r="J233" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K233" s="1" t="s">
         <v>245</v>
       </c>
@@ -8780,7 +9532,9 @@
         <v>1</v>
       </c>
       <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
+      <c r="J235" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K235" s="1" t="s">
         <v>242</v>
       </c>
@@ -8809,7 +9563,9 @@
         <v>1</v>
       </c>
       <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
+      <c r="J236" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K236" s="1" t="s">
         <v>135</v>
       </c>
@@ -8840,7 +9596,9 @@
         <v>0</v>
       </c>
       <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
+      <c r="J237" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K237" s="1" t="s">
         <v>15</v>
       </c>
@@ -8929,7 +9687,9 @@
         <v>1</v>
       </c>
       <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
+      <c r="J240" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K240" s="1" t="s">
         <v>22</v>
       </c>
@@ -8989,7 +9749,9 @@
         <v>0</v>
       </c>
       <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
+      <c r="J242" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K242" s="1" t="s">
         <v>27</v>
       </c>
@@ -9078,7 +9840,9 @@
         <v>0</v>
       </c>
       <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
+      <c r="J245" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K245" s="1" t="s">
         <v>35</v>
       </c>
@@ -9138,7 +9902,9 @@
         <v>1</v>
       </c>
       <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
+      <c r="J247" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K247" s="1" t="s">
         <v>38</v>
       </c>
@@ -9169,7 +9935,9 @@
         <v>1</v>
       </c>
       <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
+      <c r="J248" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K248" s="1" t="s">
         <v>222</v>
       </c>
@@ -9316,7 +10084,9 @@
         <v>1</v>
       </c>
       <c r="I253" s="1"/>
-      <c r="J253" s="1"/>
+      <c r="J253" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K253" s="1" t="s">
         <v>55</v>
       </c>
@@ -9405,7 +10175,9 @@
         <v>1</v>
       </c>
       <c r="I256" s="1"/>
-      <c r="J256" s="1"/>
+      <c r="J256" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K256" s="1" t="s">
         <v>62</v>
       </c>
@@ -9465,7 +10237,9 @@
         <v>1</v>
       </c>
       <c r="I258" s="1"/>
-      <c r="J258" s="1"/>
+      <c r="J258" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K258" s="1" t="s">
         <v>63</v>
       </c>
@@ -9496,7 +10270,9 @@
         <v>1</v>
       </c>
       <c r="I259" s="1"/>
-      <c r="J259" s="1"/>
+      <c r="J259" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K259" s="1" t="s">
         <v>66</v>
       </c>
@@ -9527,7 +10303,9 @@
         <v>1</v>
       </c>
       <c r="I260" s="1"/>
-      <c r="J260" s="1"/>
+      <c r="J260" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K260" s="1" t="s">
         <v>66</v>
       </c>
@@ -9558,7 +10336,9 @@
         <v>1</v>
       </c>
       <c r="I261" s="1"/>
-      <c r="J261" s="1"/>
+      <c r="J261" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K261" s="1" t="s">
         <v>85</v>
       </c>
@@ -9589,7 +10369,9 @@
         <v>1</v>
       </c>
       <c r="I262" s="1"/>
-      <c r="J262" s="1"/>
+      <c r="J262" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="K262" s="1" t="s">
         <v>135</v>
       </c>

--- a/sample_mapping/murex_xpath_mapping.xlsx
+++ b/sample_mapping/murex_xpath_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\mhsa\mhsa\sample_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C31BB-9CED-4977-BEC7-7A66F7343341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA31DC5-619F-45E4-871F-66A507FD8AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3024" yWindow="17172" windowWidth="23256" windowHeight="13176" xr2:uid="{02769C3B-66FE-4BAD-80EB-4F6CB73AB2E9}"/>
+    <workbookView xWindow="3024" yWindow="17172" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{02769C3B-66FE-4BAD-80EB-4F6CB73AB2E9}"/>
   </bookViews>
   <sheets>
     <sheet name="bronze-to-silver" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="332">
   <si>
     <t>trade_family</t>
   </si>
@@ -915,12 +915,6 @@
     <t>target_date_type</t>
   </si>
   <si>
-    <t>IF leg0_pay_receive = 'Pay' THEN 'P' ELSE IF leg0_pay_receive = 'Received' THEN 'R'</t>
-  </si>
-  <si>
-    <t>IF payer_party_reference = '#Mizuho_Int_PLC' THEN 'P' ELSE 'R'</t>
-  </si>
-  <si>
     <t xml:space="preserve"> IF  leg0_payout_type = 'floatingRate' THEN leg0_index_label ELSE null</t>
   </si>
   <si>
@@ -948,9 +942,6 @@
     <t>IF leg1_pay_receive = 'Pay' THEN 'P' ELSE IF leg1_pay_receive = 'Received' THEN 'R'</t>
   </si>
   <si>
-    <t>IF leg0_payout_type = 'fixedgRate' THEN 'F' ELSE IF  leg0_payout_type = 'floatingRate' THEN 'V'</t>
-  </si>
-  <si>
     <t>IF leg1_payout_type = 'fixedgRate' THEN 'F' ELSE IF  leg1_payout_type = 'floatingRate' THEN 'V'</t>
   </si>
   <si>
@@ -990,9 +981,6 @@
     <t>currency1_flow_currency, currency2_flow_currency, currency1_flow_receiver_party_reference, currency2_flow_receiver_party_reference</t>
   </si>
   <si>
-    <t>IF currency1_flow_currency != 'USD' AND  currency2_flow_receiver_party_reference = '#Mizuho_Int_PLC' THEN 'B' ELSE 'S'</t>
-  </si>
-  <si>
     <t>future_holder_reference</t>
   </si>
   <si>
@@ -1024,13 +1012,31 @@
   </si>
   <si>
     <t>/MxML/trades/trade/parties/party[partyName != 'Mizuho Int PLC']/partyName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IF  leg0_payout_typ"e = 'floatingRate' THEN leg0_index_label ELSE null</t>
+  </si>
+  <si>
+    <t>IF payer_party_reference = '#Mizuho_Int_PLC' THEN 'P' ELSE  IF receiverPartyReference = '#Mizuho_Int_PLC' THEN 'R' ELSE null</t>
+  </si>
+  <si>
+    <t>IF leg0_pay_receive = 'Pay' THEN 'P' ELSE IF leg0_pay_receive = 'Received' THEN 'R' ELSE null</t>
+  </si>
+  <si>
+    <t>IF leg0_payout_type = 'fixedRate' THEN 'F' ELSE IF  leg0_payout_type = 'floatingRate' THEN 'V' ELSE null</t>
+  </si>
+  <si>
+    <t>IF currency1_flow_currency != 'USD' AND  currency1_flow_receiver_party_reference = '#Mizuho_Int_PLC' THEN 'B' ELSE 'S'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,6 +1167,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1694,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1723,45 +1737,22 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1772,8 +1763,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1807,6 +1823,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2155,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49276FB7-08DB-4143-AC6C-E31B9092D760}">
   <dimension ref="A1:M263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+    <sheetView topLeftCell="A229" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,23 +2189,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2269,7 +2286,7 @@
         <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>138</v>
@@ -2848,7 +2865,7 @@
         <v>137</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>138</v>
@@ -2877,7 +2894,7 @@
         <v>137</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>138</v>
@@ -3269,7 +3286,7 @@
         <v>163</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>261</v>
@@ -3848,7 +3865,7 @@
         <v>163</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>261</v>
@@ -3877,7 +3894,7 @@
         <v>163</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>261</v>
@@ -3969,13 +3986,13 @@
       <c r="A59" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="22" t="s">
         <v>166</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -3999,7 +4016,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="20" t="s">
         <v>136</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4011,7 +4028,7 @@
       <c r="D60" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="21" t="s">
         <v>261</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -4032,7 +4049,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="20" t="s">
         <v>136</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4044,7 +4061,7 @@
       <c r="D61" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="21" t="s">
         <v>261</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -4065,7 +4082,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="20" t="s">
         <v>136</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4077,7 +4094,7 @@
       <c r="D62" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="21" t="s">
         <v>261</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -4101,13 +4118,13 @@
       <c r="A63" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4265,7 +4282,7 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>260</v>
@@ -4887,7 +4904,7 @@
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>260</v>
@@ -4914,7 +4931,7 @@
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>260</v>
@@ -5870,7 +5887,7 @@
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>14</v>
@@ -6588,7 +6605,7 @@
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>14</v>
@@ -6621,7 +6638,7 @@
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>14</v>
@@ -7706,7 +7723,7 @@
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>262</v>
@@ -7992,7 +8009,7 @@
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>262</v>
@@ -8247,7 +8264,7 @@
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>262</v>
@@ -8274,7 +8291,7 @@
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>262</v>
@@ -8305,13 +8322,13 @@
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>262</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>13</v>
@@ -8603,7 +8620,7 @@
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>263</v>
@@ -8889,7 +8906,7 @@
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>263</v>
@@ -9144,7 +9161,7 @@
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>263</v>
@@ -9171,7 +9188,7 @@
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>263</v>
@@ -9202,13 +9219,13 @@
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>263</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>13</v>
@@ -9504,7 +9521,7 @@
         <v>205</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>264</v>
@@ -10083,7 +10100,7 @@
         <v>205</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>264</v>
@@ -10112,7 +10129,7 @@
         <v>205</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>264</v>
@@ -10177,7 +10194,7 @@
       <c r="C260" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" s="31" t="s">
         <v>208</v>
       </c>
       <c r="E260" s="1" t="s">
@@ -10250,7 +10267,7 @@
         <v>264</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>13</v>
@@ -10305,6 +10322,9 @@
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D260" r:id="rId1" xr:uid="{BE59DEFC-77AD-47B4-99F4-87F0F6BF1232}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10313,8 +10333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7D2BFE-0DCA-494D-BCF4-A3E4C6472A02}">
   <dimension ref="B1:K250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10330,4210 +10350,4291 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12" t="s">
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="7"/>
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H12" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="F29" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="C36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="F42" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14" t="s">
+      <c r="C47" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" s="12"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+    </row>
+    <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="F75" s="8"/>
+      <c r="G75" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="F76" s="10"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="C77" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+    </row>
+    <row r="81" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I82" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+    </row>
+    <row r="88" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F88" s="14"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H89" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I89" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+    </row>
+    <row r="95" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F95" s="12"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F96" s="16"/>
+      <c r="G96" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H96" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I96" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+    </row>
+    <row r="102" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F102" s="14"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H103" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I103" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+    </row>
+    <row r="109" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F109" s="12"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F110" s="16"/>
+      <c r="G110" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H110" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I110" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+    </row>
+    <row r="116" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F116" s="14"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H117" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I117" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
+      <c r="D119" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="C120" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="D120" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G120" s="27"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="F121" s="10"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17" t="s">
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
+      <c r="F122" s="10"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+    </row>
+    <row r="123" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="21" t="s">
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="F123" s="12"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14" t="s">
+      <c r="C124" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G124" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H124" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I124" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+    </row>
+    <row r="130" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F131" s="8"/>
+      <c r="G131" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H131" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I131" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="10"/>
+      <c r="F133" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="F135" s="11"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F136" s="11"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+    </row>
+    <row r="137" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F137" s="13"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="G138" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H138" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I138" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17" t="s">
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+    </row>
+    <row r="144" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F144" s="14"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F145" s="8"/>
+      <c r="G145" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H145" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="I145" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F146" s="10"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E147" s="10"/>
+      <c r="F147" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G147" s="27"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F149" s="10"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F150" s="10"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+    </row>
+    <row r="151" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" s="12"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="28"/>
+      <c r="I151" s="28"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="F152" s="16"/>
+      <c r="G152" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H152" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I152" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F153" s="10"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="C154" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="C155" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17" t="s">
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="F156" s="10"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17" t="s">
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+      <c r="F157" s="10"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+    </row>
+    <row r="158" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="21" t="s">
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="F158" s="14"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14" t="s">
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
+      <c r="F159" s="8"/>
+      <c r="G159" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H159" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I159" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17" t="s">
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
+      <c r="F160" s="10"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17" t="s">
+      <c r="C161" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E161" s="10"/>
+      <c r="F161" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
+      <c r="C162" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" s="10"/>
+      <c r="F162" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="s">
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17" t="s">
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+      <c r="F163" s="10"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17" t="s">
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="19" t="s">
+      <c r="F164" s="10"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+    </row>
+    <row r="165" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="21" t="s">
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
+      <c r="F165" s="12"/>
+      <c r="G165" s="28"/>
+      <c r="H165" s="28"/>
+      <c r="I165" s="28"/>
+    </row>
+    <row r="166" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" s="18"/>
+      <c r="F166" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="G166" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="H166" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I166" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14" t="s">
+      <c r="C167" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="8"/>
+      <c r="F167" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G167" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H167" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="I167" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="10"/>
+      <c r="F168" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="F169" s="10"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F170" s="10"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F171" s="10"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F172" s="10"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+    </row>
+    <row r="173" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F173" s="12"/>
+      <c r="G173" s="28"/>
+      <c r="H173" s="28"/>
+      <c r="I173" s="28"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G174" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H174" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="I174" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17" t="s">
+      <c r="C175" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+      <c r="F176" s="10"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F177" s="10"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F178" s="10"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F179" s="10"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+    </row>
+    <row r="180" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F180" s="14"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G181" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H181" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="I181" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F183" s="10"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F184" s="10"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
+      <c r="C185" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="19" t="s">
+      <c r="C186" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+    </row>
+    <row r="187" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F187" s="12"/>
+      <c r="G187" s="28"/>
+      <c r="H187" s="28"/>
+      <c r="I187" s="28"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="D47" s="13" t="s">
+      <c r="C188" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D188" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I47" s="15" t="s">
+      <c r="E188" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G188" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H188" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="I188" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="D48" s="16" t="s">
+      <c r="C189" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D189" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
+      <c r="E189" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C190" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F192" s="10"/>
+      <c r="G192" s="27"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F193" s="10"/>
+      <c r="G193" s="27"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+    </row>
+    <row r="194" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F194" s="14"/>
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F195" s="8"/>
+      <c r="G195" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H195" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I195" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F196" s="10"/>
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="27"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F197" s="10"/>
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="27"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F198" s="10"/>
+      <c r="G198" s="27"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="27"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F199" s="10"/>
+      <c r="G199" s="27"/>
+      <c r="H199" s="27"/>
+      <c r="I199" s="27"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F200" s="10"/>
+      <c r="G200" s="27"/>
+      <c r="H200" s="27"/>
+      <c r="I200" s="27"/>
+    </row>
+    <row r="201" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F201" s="12"/>
+      <c r="G201" s="28"/>
+      <c r="H201" s="28"/>
+      <c r="I201" s="28"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D202" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17" t="s">
+      <c r="E202" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F202" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G202" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H202" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="I202" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F204" s="10"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F205" s="10"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="27"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F206" s="10"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="27"/>
+      <c r="I206" s="27"/>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F207" s="10"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="27"/>
+    </row>
+    <row r="208" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F208" s="14"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B209" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F209" s="8"/>
+      <c r="G209" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H209" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="I209" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B210" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F210" s="10"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B211" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F211" s="10"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="27"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B212" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F212" s="10"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27"/>
+      <c r="I212" s="27"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B213" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B214" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="27"/>
+    </row>
+    <row r="215" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F215" s="12"/>
+      <c r="G215" s="28"/>
+      <c r="H215" s="28"/>
+      <c r="I215" s="28"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B216" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C216" s="16"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="F216" s="16"/>
+      <c r="G216" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H216" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="I216" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B217" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F217" s="10"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27"/>
+      <c r="I217" s="27"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B218" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F218" s="10"/>
+      <c r="G218" s="27"/>
+      <c r="H218" s="27"/>
+      <c r="I218" s="27"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B219" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="16" t="s">
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F219" s="10"/>
+      <c r="G219" s="27"/>
+      <c r="H219" s="27"/>
+      <c r="I219" s="27"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B220" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E220" s="10"/>
+      <c r="F220" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G220" s="27"/>
+      <c r="H220" s="27"/>
+      <c r="I220" s="27"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B221" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E221" s="10"/>
+      <c r="F221" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G221" s="27"/>
+      <c r="H221" s="27"/>
+      <c r="I221" s="27"/>
+    </row>
+    <row r="222" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="F222" s="15"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="27"/>
+      <c r="I222" s="27"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B223" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F223" s="8"/>
+      <c r="G223" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H223" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="I223" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B224" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F224" s="10"/>
+      <c r="G224" s="27"/>
+      <c r="H224" s="27"/>
+      <c r="I224" s="27"/>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F225" s="10"/>
+      <c r="G225" s="27"/>
+      <c r="H225" s="27"/>
+      <c r="I225" s="27"/>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F226" s="10"/>
+      <c r="G226" s="27"/>
+      <c r="H226" s="27"/>
+      <c r="I226" s="27"/>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E227" s="10"/>
+      <c r="F227" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G227" s="27"/>
+      <c r="H227" s="27"/>
+      <c r="I227" s="27"/>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E228" s="10"/>
+      <c r="F228" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G228" s="27"/>
+      <c r="H228" s="27"/>
+      <c r="I228" s="27"/>
+    </row>
+    <row r="229" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F229" s="12"/>
+      <c r="G229" s="28"/>
+      <c r="H229" s="28"/>
+      <c r="I229" s="28"/>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C230" s="16"/>
+      <c r="D230" s="16"/>
+      <c r="E230" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="F230" s="16"/>
+      <c r="G230" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H230" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="I230" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F231" s="10"/>
+      <c r="G231" s="27"/>
+      <c r="H231" s="27"/>
+      <c r="I231" s="27"/>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F232" s="10"/>
+      <c r="G232" s="27"/>
+      <c r="H232" s="27"/>
+      <c r="I232" s="27"/>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F233" s="10"/>
+      <c r="G233" s="27"/>
+      <c r="H233" s="27"/>
+      <c r="I233" s="27"/>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G234" s="27"/>
+      <c r="H234" s="27"/>
+      <c r="I234" s="27"/>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E235" s="10"/>
+      <c r="F235" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G235" s="27"/>
+      <c r="H235" s="27"/>
+      <c r="I235" s="27"/>
+    </row>
+    <row r="236" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="F236" s="14"/>
+      <c r="G236" s="27"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="27"/>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F237" s="8"/>
+      <c r="G237" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H237" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="I237" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17" t="s">
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F238" s="10"/>
+      <c r="G238" s="27"/>
+      <c r="H238" s="27"/>
+      <c r="I238" s="27"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F239" s="10"/>
+      <c r="G239" s="27"/>
+      <c r="H239" s="27"/>
+      <c r="I239" s="27"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F240" s="10"/>
+      <c r="G240" s="27"/>
+      <c r="H240" s="27"/>
+      <c r="I240" s="27"/>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B241" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E241" s="10"/>
+      <c r="F241" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
+      <c r="G241" s="27"/>
+      <c r="H241" s="27"/>
+      <c r="I241" s="27"/>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B242" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E242" s="10"/>
+      <c r="F242" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G242" s="27"/>
+      <c r="H242" s="27"/>
+      <c r="I242" s="27"/>
+    </row>
+    <row r="243" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F243" s="12"/>
+      <c r="G243" s="28"/>
+      <c r="H243" s="28"/>
+      <c r="I243" s="28"/>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B244" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C244" s="16"/>
+      <c r="D244" s="16"/>
+      <c r="E244" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="F244" s="16"/>
+      <c r="G244" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H244" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="I244" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B245" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F245" s="10"/>
+      <c r="G245" s="27"/>
+      <c r="H245" s="27"/>
+      <c r="I245" s="27"/>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B246" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C246" s="10"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F246" s="10"/>
+      <c r="G246" s="27"/>
+      <c r="H246" s="27"/>
+      <c r="I246" s="27"/>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B247" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="10"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F247" s="10"/>
+      <c r="G247" s="27"/>
+      <c r="H247" s="27"/>
+      <c r="I247" s="27"/>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B248" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
+      <c r="C248" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248" s="10"/>
+      <c r="F248" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
+      <c r="G248" s="27"/>
+      <c r="H248" s="27"/>
+      <c r="I248" s="27"/>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B249" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17" t="s">
+      <c r="C249" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E249" s="10"/>
+      <c r="F249" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="19" t="s">
+      <c r="G249" s="27"/>
+      <c r="H249" s="27"/>
+      <c r="I249" s="27"/>
+    </row>
+    <row r="250" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="I68" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-    </row>
-    <row r="74" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="F74" s="22"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I75" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-    </row>
-    <row r="81" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H82" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I82" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-    </row>
-    <row r="88" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H89" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F93" s="16"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F94" s="16"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-    </row>
-    <row r="95" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F95" s="19"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B96" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="F96" s="24"/>
-      <c r="G96" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I96" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F98" s="16"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F100" s="16"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-    </row>
-    <row r="102" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F102" s="22"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H103" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I103" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F105" s="16"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="F106" s="16"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-    </row>
-    <row r="109" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F109" s="19"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="F110" s="24"/>
-      <c r="G110" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H110" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I110" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F115" s="16"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-    </row>
-    <row r="116" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F116" s="22"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I117" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="F119" s="16"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="F120" s="16"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-    </row>
-    <row r="123" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C124" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="F124" s="25"/>
-      <c r="G124" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H124" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I124" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="F125" s="17"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E126" s="16"/>
-      <c r="F126" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E127" s="16"/>
-      <c r="F127" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F128" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F129" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-    </row>
-    <row r="130" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="F130" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="F131" s="13"/>
-      <c r="G131" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H131" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="I131" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="F132" s="16"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E133" s="16"/>
-      <c r="F133" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" s="16"/>
-      <c r="F134" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F135" s="17"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F136" s="17"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-    </row>
-    <row r="137" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F137" s="21"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="G138" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H138" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I138" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F139" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D140" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="F140" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D141" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="F141" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F142" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F143" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
-    </row>
-    <row r="144" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="F144" s="22"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="F145" s="13"/>
-      <c r="G145" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="I145" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F146" s="16"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D147" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E147" s="16"/>
-      <c r="F147" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D148" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E148" s="16"/>
-      <c r="F148" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F149" s="16"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F150" s="16"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-    </row>
-    <row r="151" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="F151" s="19"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B152" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C152" s="24"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="F152" s="24"/>
-      <c r="G152" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H152" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I152" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B153" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F153" s="16"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B154" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D154" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E154" s="16"/>
-      <c r="F154" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
-      <c r="I154" s="18"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D155" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E155" s="16"/>
-      <c r="F155" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B156" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F156" s="16"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F157" s="16"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
-    </row>
-    <row r="158" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C158" s="22"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F158" s="22"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F159" s="13"/>
-      <c r="G159" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H159" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I159" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F160" s="16"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E161" s="16"/>
-      <c r="F161" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E162" s="16"/>
-      <c r="F162" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B163" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F163" s="16"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F164" s="16"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
-    </row>
-    <row r="165" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F165" s="19"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="20"/>
-    </row>
-    <row r="166" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D166" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E166" s="26"/>
-      <c r="F166" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="G166" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="H166" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="I166" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B167" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="13"/>
-      <c r="F167" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G167" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H167" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="I167" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D168" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E168" s="16"/>
-      <c r="F168" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
-      <c r="I168" s="18"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F169" s="16"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
-      <c r="I169" s="18"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F170" s="16"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="18"/>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F171" s="16"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B172" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F172" s="16"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="18"/>
-    </row>
-    <row r="173" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F173" s="19"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="20"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C174" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="D174" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E174" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="F174" s="24"/>
-      <c r="G174" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H174" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="I174" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B175" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C175" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D175" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F175" s="16"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
-      <c r="I175" s="18"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F176" s="16"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
-      <c r="I176" s="18"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F177" s="16"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
-      <c r="I177" s="18"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F178" s="16"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B179" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="F179" s="16"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
-      <c r="I179" s="18"/>
-    </row>
-    <row r="180" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F180" s="22"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
-      <c r="I180" s="18"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D181" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E181" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="F181" s="13"/>
-      <c r="G181" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H181" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I181" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B182" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="D182" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E182" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="F182" s="16"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
-      <c r="I182" s="18"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="F183" s="16"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="18"/>
-      <c r="I183" s="18"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C184" s="16"/>
-      <c r="D184" s="16"/>
-      <c r="E184" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="F184" s="16"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="18"/>
-      <c r="I184" s="18"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D185" s="16"/>
-      <c r="E185" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="F185" s="16"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
-      <c r="I185" s="18"/>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B186" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="F186" s="16"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
-      <c r="I186" s="18"/>
-    </row>
-    <row r="187" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C187" s="19"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="F187" s="19"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="20"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B188" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C188" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="D188" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E188" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="F188" s="24"/>
-      <c r="G188" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H188" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I188" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B189" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D189" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E189" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="F189" s="16"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="18"/>
-      <c r="I189" s="18"/>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B190" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D190" s="16"/>
-      <c r="E190" s="16"/>
-      <c r="F190" s="16"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="18"/>
-      <c r="I190" s="18"/>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B191" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D191" s="16"/>
-      <c r="E191" s="16"/>
-      <c r="F191" s="16"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="18"/>
-      <c r="I191" s="18"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B192" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C192" s="16"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F192" s="16"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="18"/>
-      <c r="I192" s="18"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B193" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C193" s="16"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F193" s="16"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
-      <c r="I193" s="18"/>
-    </row>
-    <row r="194" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C194" s="22"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="F194" s="22"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="18"/>
-      <c r="I194" s="18"/>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="F195" s="13"/>
-      <c r="G195" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H195" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="I195" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B196" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C196" s="16"/>
-      <c r="D196" s="16"/>
-      <c r="E196" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="F196" s="16"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="18"/>
-      <c r="I196" s="18"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C197" s="16"/>
-      <c r="D197" s="16"/>
-      <c r="E197" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F197" s="16"/>
-      <c r="G197" s="18"/>
-      <c r="H197" s="18"/>
-      <c r="I197" s="18"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B198" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C198" s="16"/>
-      <c r="D198" s="16"/>
-      <c r="E198" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F198" s="16"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="18"/>
-      <c r="I198" s="18"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C199" s="16"/>
-      <c r="D199" s="16"/>
-      <c r="E199" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F199" s="16"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
-      <c r="I199" s="18"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C200" s="16"/>
-      <c r="D200" s="16"/>
-      <c r="E200" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F200" s="16"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
-      <c r="I200" s="18"/>
-    </row>
-    <row r="201" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C201" s="19"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="F201" s="19"/>
-      <c r="G201" s="20"/>
-      <c r="H201" s="20"/>
-      <c r="I201" s="20"/>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="D202" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E202" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="F202" s="24"/>
-      <c r="G202" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H202" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="I202" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D203" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E203" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="F203" s="16"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="18"/>
-      <c r="I203" s="18"/>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B204" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C204" s="16"/>
-      <c r="D204" s="16"/>
-      <c r="E204" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F204" s="16"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
-      <c r="I204" s="18"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B205" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" s="16"/>
-      <c r="D205" s="16"/>
-      <c r="E205" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F205" s="16"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="18"/>
-      <c r="I205" s="18"/>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B206" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C206" s="16"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F206" s="16"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
-      <c r="I206" s="18"/>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B207" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C207" s="16"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F207" s="16"/>
-      <c r="G207" s="18"/>
-      <c r="H207" s="18"/>
-      <c r="I207" s="18"/>
-    </row>
-    <row r="208" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
-      <c r="E208" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="F208" s="22"/>
-      <c r="G208" s="18"/>
-      <c r="H208" s="18"/>
-      <c r="I208" s="18"/>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B209" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C209" s="13"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="F209" s="13"/>
-      <c r="G209" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H209" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="I209" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B210" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C210" s="16"/>
-      <c r="D210" s="16"/>
-      <c r="E210" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F210" s="16"/>
-      <c r="G210" s="18"/>
-      <c r="H210" s="18"/>
-      <c r="I210" s="18"/>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B211" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C211" s="16"/>
-      <c r="D211" s="16"/>
-      <c r="E211" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F211" s="16"/>
-      <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
-      <c r="I211" s="18"/>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B212" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C212" s="16"/>
-      <c r="D212" s="16"/>
-      <c r="E212" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F212" s="16"/>
-      <c r="G212" s="18"/>
-      <c r="H212" s="18"/>
-      <c r="I212" s="18"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B213" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D213" s="16"/>
-      <c r="E213" s="16"/>
-      <c r="F213" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G213" s="18"/>
-      <c r="H213" s="18"/>
-      <c r="I213" s="18"/>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B214" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D214" s="16"/>
-      <c r="E214" s="16"/>
-      <c r="F214" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G214" s="18"/>
-      <c r="H214" s="18"/>
-      <c r="I214" s="18"/>
-    </row>
-    <row r="215" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C215" s="19"/>
-      <c r="D215" s="19"/>
-      <c r="E215" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="F215" s="19"/>
-      <c r="G215" s="20"/>
-      <c r="H215" s="20"/>
-      <c r="I215" s="20"/>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B216" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C216" s="24"/>
-      <c r="D216" s="24"/>
-      <c r="E216" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="F216" s="24"/>
-      <c r="G216" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H216" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="I216" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B217" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C217" s="16"/>
-      <c r="D217" s="16"/>
-      <c r="E217" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F217" s="16"/>
-      <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
-      <c r="I217" s="18"/>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B218" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C218" s="16"/>
-      <c r="D218" s="16"/>
-      <c r="E218" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F218" s="16"/>
-      <c r="G218" s="18"/>
-      <c r="H218" s="18"/>
-      <c r="I218" s="18"/>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B219" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C219" s="16"/>
-      <c r="D219" s="16"/>
-      <c r="E219" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F219" s="16"/>
-      <c r="G219" s="18"/>
-      <c r="H219" s="18"/>
-      <c r="I219" s="18"/>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B220" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D220" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E220" s="16"/>
-      <c r="F220" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G220" s="18"/>
-      <c r="H220" s="18"/>
-      <c r="I220" s="18"/>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B221" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D221" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E221" s="16"/>
-      <c r="F221" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G221" s="18"/>
-      <c r="H221" s="18"/>
-      <c r="I221" s="18"/>
-    </row>
-    <row r="222" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
-      <c r="E222" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="F222" s="23"/>
-      <c r="G222" s="18"/>
-      <c r="H222" s="18"/>
-      <c r="I222" s="18"/>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B223" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C223" s="13"/>
-      <c r="D223" s="13"/>
-      <c r="E223" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F223" s="13"/>
-      <c r="G223" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H223" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="I223" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B224" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C224" s="16"/>
-      <c r="D224" s="16"/>
-      <c r="E224" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F224" s="16"/>
-      <c r="G224" s="18"/>
-      <c r="H224" s="18"/>
-      <c r="I224" s="18"/>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B225" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C225" s="16"/>
-      <c r="D225" s="16"/>
-      <c r="E225" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F225" s="16"/>
-      <c r="G225" s="18"/>
-      <c r="H225" s="18"/>
-      <c r="I225" s="18"/>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B226" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C226" s="16"/>
-      <c r="D226" s="16"/>
-      <c r="E226" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F226" s="16"/>
-      <c r="G226" s="18"/>
-      <c r="H226" s="18"/>
-      <c r="I226" s="18"/>
-    </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B227" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D227" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E227" s="16"/>
-      <c r="F227" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G227" s="18"/>
-      <c r="H227" s="18"/>
-      <c r="I227" s="18"/>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B228" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D228" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E228" s="16"/>
-      <c r="F228" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G228" s="18"/>
-      <c r="H228" s="18"/>
-      <c r="I228" s="18"/>
-    </row>
-    <row r="229" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C229" s="19"/>
-      <c r="D229" s="19"/>
-      <c r="E229" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F229" s="19"/>
-      <c r="G229" s="20"/>
-      <c r="H229" s="20"/>
-      <c r="I229" s="20"/>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B230" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C230" s="24"/>
-      <c r="D230" s="24"/>
-      <c r="E230" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="F230" s="24"/>
-      <c r="G230" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H230" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="I230" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B231" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C231" s="16"/>
-      <c r="D231" s="16"/>
-      <c r="E231" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F231" s="16"/>
-      <c r="G231" s="18"/>
-      <c r="H231" s="18"/>
-      <c r="I231" s="18"/>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B232" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C232" s="16"/>
-      <c r="D232" s="16"/>
-      <c r="E232" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F232" s="16"/>
-      <c r="G232" s="18"/>
-      <c r="H232" s="18"/>
-      <c r="I232" s="18"/>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B233" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C233" s="16"/>
-      <c r="D233" s="16"/>
-      <c r="E233" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F233" s="16"/>
-      <c r="G233" s="18"/>
-      <c r="H233" s="18"/>
-      <c r="I233" s="18"/>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B234" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D234" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E234" s="17"/>
-      <c r="F234" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G234" s="18"/>
-      <c r="H234" s="18"/>
-      <c r="I234" s="18"/>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B235" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C235" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D235" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E235" s="16"/>
-      <c r="F235" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G235" s="18"/>
-      <c r="H235" s="18"/>
-      <c r="I235" s="18"/>
-    </row>
-    <row r="236" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C236" s="22"/>
-      <c r="D236" s="22"/>
-      <c r="E236" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="F236" s="22"/>
-      <c r="G236" s="18"/>
-      <c r="H236" s="18"/>
-      <c r="I236" s="18"/>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B237" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C237" s="13"/>
-      <c r="D237" s="13"/>
-      <c r="E237" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F237" s="13"/>
-      <c r="G237" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H237" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="I237" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B238" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C238" s="16"/>
-      <c r="D238" s="16"/>
-      <c r="E238" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F238" s="16"/>
-      <c r="G238" s="18"/>
-      <c r="H238" s="18"/>
-      <c r="I238" s="18"/>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B239" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C239" s="16"/>
-      <c r="D239" s="16"/>
-      <c r="E239" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F239" s="16"/>
-      <c r="G239" s="18"/>
-      <c r="H239" s="18"/>
-      <c r="I239" s="18"/>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B240" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C240" s="16"/>
-      <c r="D240" s="16"/>
-      <c r="E240" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F240" s="16"/>
-      <c r="G240" s="18"/>
-      <c r="H240" s="18"/>
-      <c r="I240" s="18"/>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B241" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C241" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D241" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E241" s="16"/>
-      <c r="F241" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G241" s="18"/>
-      <c r="H241" s="18"/>
-      <c r="I241" s="18"/>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B242" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D242" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E242" s="16"/>
-      <c r="F242" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G242" s="18"/>
-      <c r="H242" s="18"/>
-      <c r="I242" s="18"/>
-    </row>
-    <row r="243" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C243" s="19"/>
-      <c r="D243" s="19"/>
-      <c r="E243" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F243" s="19"/>
-      <c r="G243" s="20"/>
-      <c r="H243" s="20"/>
-      <c r="I243" s="20"/>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B244" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C244" s="24"/>
-      <c r="D244" s="24"/>
-      <c r="E244" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="F244" s="24"/>
-      <c r="G244" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H244" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="I244" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B245" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C245" s="16"/>
-      <c r="D245" s="16"/>
-      <c r="E245" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F245" s="16"/>
-      <c r="G245" s="18"/>
-      <c r="H245" s="18"/>
-      <c r="I245" s="18"/>
-    </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B246" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C246" s="16"/>
-      <c r="D246" s="16"/>
-      <c r="E246" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F246" s="16"/>
-      <c r="G246" s="18"/>
-      <c r="H246" s="18"/>
-      <c r="I246" s="18"/>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B247" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C247" s="16"/>
-      <c r="D247" s="16"/>
-      <c r="E247" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F247" s="16"/>
-      <c r="G247" s="18"/>
-      <c r="H247" s="18"/>
-      <c r="I247" s="18"/>
-    </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B248" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D248" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E248" s="16"/>
-      <c r="F248" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G248" s="18"/>
-      <c r="H248" s="18"/>
-      <c r="I248" s="18"/>
-    </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B249" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C249" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D249" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E249" s="16"/>
-      <c r="F249" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G249" s="18"/>
-      <c r="H249" s="18"/>
-      <c r="I249" s="18"/>
-    </row>
-    <row r="250" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C250" s="19"/>
-      <c r="D250" s="19"/>
-      <c r="E250" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="F250" s="19"/>
-      <c r="G250" s="20"/>
-      <c r="H250" s="20"/>
-      <c r="I250" s="20"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F250" s="12"/>
+      <c r="G250" s="28"/>
+      <c r="H250" s="28"/>
+      <c r="I250" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="H47:H53"/>
-    <mergeCell ref="H40:H46"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="H89:H95"/>
-    <mergeCell ref="H82:H88"/>
-    <mergeCell ref="H75:H81"/>
-    <mergeCell ref="H68:H74"/>
-    <mergeCell ref="H61:H67"/>
-    <mergeCell ref="H54:H60"/>
-    <mergeCell ref="H131:H137"/>
-    <mergeCell ref="H124:H130"/>
-    <mergeCell ref="H117:H123"/>
-    <mergeCell ref="H110:H116"/>
-    <mergeCell ref="H103:H109"/>
-    <mergeCell ref="H96:H102"/>
-    <mergeCell ref="H174:H180"/>
-    <mergeCell ref="H167:H173"/>
-    <mergeCell ref="H159:H165"/>
-    <mergeCell ref="H152:H158"/>
-    <mergeCell ref="H145:H151"/>
-    <mergeCell ref="H138:H144"/>
-    <mergeCell ref="I75:I81"/>
-    <mergeCell ref="I223:I229"/>
-    <mergeCell ref="H230:H236"/>
-    <mergeCell ref="H223:H229"/>
-    <mergeCell ref="H216:H222"/>
-    <mergeCell ref="H209:H215"/>
-    <mergeCell ref="H202:H208"/>
-    <mergeCell ref="H195:H201"/>
-    <mergeCell ref="H188:H194"/>
-    <mergeCell ref="H181:H187"/>
-    <mergeCell ref="I188:I194"/>
-    <mergeCell ref="I202:I208"/>
-    <mergeCell ref="I237:I243"/>
-    <mergeCell ref="I230:I236"/>
-    <mergeCell ref="I216:I222"/>
-    <mergeCell ref="I159:I165"/>
-    <mergeCell ref="I103:I109"/>
-    <mergeCell ref="I96:I102"/>
-    <mergeCell ref="I89:I95"/>
-    <mergeCell ref="I54:I60"/>
-    <mergeCell ref="I40:I46"/>
+    <mergeCell ref="G19:G25"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="H26:H32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="G75:G81"/>
+    <mergeCell ref="G82:G88"/>
+    <mergeCell ref="G89:G95"/>
+    <mergeCell ref="G96:G102"/>
+    <mergeCell ref="G103:G109"/>
+    <mergeCell ref="G110:G116"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="G40:G46"/>
+    <mergeCell ref="G47:G53"/>
+    <mergeCell ref="G54:G60"/>
+    <mergeCell ref="G61:G67"/>
+    <mergeCell ref="G68:G74"/>
+    <mergeCell ref="G159:G165"/>
+    <mergeCell ref="G167:G173"/>
+    <mergeCell ref="G174:G180"/>
+    <mergeCell ref="G181:G187"/>
+    <mergeCell ref="G188:G194"/>
+    <mergeCell ref="G195:G201"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="G124:G130"/>
+    <mergeCell ref="G131:G137"/>
+    <mergeCell ref="G138:G144"/>
+    <mergeCell ref="G145:G151"/>
+    <mergeCell ref="G152:G158"/>
+    <mergeCell ref="G244:G250"/>
+    <mergeCell ref="H244:H250"/>
+    <mergeCell ref="H237:H243"/>
+    <mergeCell ref="I244:I250"/>
+    <mergeCell ref="I209:I215"/>
+    <mergeCell ref="I195:I201"/>
+    <mergeCell ref="G202:G208"/>
+    <mergeCell ref="G209:G215"/>
+    <mergeCell ref="G216:G222"/>
+    <mergeCell ref="G223:G229"/>
+    <mergeCell ref="G230:G236"/>
+    <mergeCell ref="G237:G243"/>
     <mergeCell ref="I33:I39"/>
     <mergeCell ref="I47:I53"/>
     <mergeCell ref="I61:I67"/>
@@ -14549,53 +14650,48 @@
     <mergeCell ref="I138:I144"/>
     <mergeCell ref="I145:I151"/>
     <mergeCell ref="I152:I158"/>
-    <mergeCell ref="G244:G250"/>
-    <mergeCell ref="H244:H250"/>
-    <mergeCell ref="H237:H243"/>
-    <mergeCell ref="I244:I250"/>
-    <mergeCell ref="I209:I215"/>
-    <mergeCell ref="I195:I201"/>
-    <mergeCell ref="G202:G208"/>
-    <mergeCell ref="G209:G215"/>
-    <mergeCell ref="G216:G222"/>
-    <mergeCell ref="G223:G229"/>
-    <mergeCell ref="G230:G236"/>
-    <mergeCell ref="G237:G243"/>
-    <mergeCell ref="G159:G165"/>
-    <mergeCell ref="G167:G173"/>
-    <mergeCell ref="G174:G180"/>
-    <mergeCell ref="G181:G187"/>
-    <mergeCell ref="G188:G194"/>
-    <mergeCell ref="G195:G201"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="G124:G130"/>
-    <mergeCell ref="G131:G137"/>
-    <mergeCell ref="G138:G144"/>
-    <mergeCell ref="G145:G151"/>
-    <mergeCell ref="G152:G158"/>
-    <mergeCell ref="G75:G81"/>
-    <mergeCell ref="G82:G88"/>
-    <mergeCell ref="G89:G95"/>
-    <mergeCell ref="G96:G102"/>
-    <mergeCell ref="G103:G109"/>
-    <mergeCell ref="G110:G116"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="G40:G46"/>
-    <mergeCell ref="G47:G53"/>
-    <mergeCell ref="G54:G60"/>
-    <mergeCell ref="G61:G67"/>
-    <mergeCell ref="G68:G74"/>
-    <mergeCell ref="G19:G25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="I19:I25"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="H26:H32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="I237:I243"/>
+    <mergeCell ref="I230:I236"/>
+    <mergeCell ref="I216:I222"/>
+    <mergeCell ref="I159:I165"/>
+    <mergeCell ref="I103:I109"/>
+    <mergeCell ref="I96:I102"/>
+    <mergeCell ref="I89:I95"/>
+    <mergeCell ref="I54:I60"/>
+    <mergeCell ref="I40:I46"/>
+    <mergeCell ref="I75:I81"/>
+    <mergeCell ref="I223:I229"/>
+    <mergeCell ref="H230:H236"/>
+    <mergeCell ref="H223:H229"/>
+    <mergeCell ref="H216:H222"/>
+    <mergeCell ref="H209:H215"/>
+    <mergeCell ref="H202:H208"/>
+    <mergeCell ref="H195:H201"/>
+    <mergeCell ref="H188:H194"/>
+    <mergeCell ref="H181:H187"/>
+    <mergeCell ref="I188:I194"/>
+    <mergeCell ref="I202:I208"/>
+    <mergeCell ref="H131:H137"/>
+    <mergeCell ref="H124:H130"/>
+    <mergeCell ref="H117:H123"/>
+    <mergeCell ref="H110:H116"/>
+    <mergeCell ref="H103:H109"/>
+    <mergeCell ref="H96:H102"/>
+    <mergeCell ref="H174:H180"/>
+    <mergeCell ref="H167:H173"/>
+    <mergeCell ref="H159:H165"/>
+    <mergeCell ref="H152:H158"/>
+    <mergeCell ref="H145:H151"/>
+    <mergeCell ref="H138:H144"/>
+    <mergeCell ref="H47:H53"/>
+    <mergeCell ref="H40:H46"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="H89:H95"/>
+    <mergeCell ref="H82:H88"/>
+    <mergeCell ref="H75:H81"/>
+    <mergeCell ref="H68:H74"/>
+    <mergeCell ref="H61:H67"/>
+    <mergeCell ref="H54:H60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
